--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>returned</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -61,178 +64,172 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>salad</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>exactly</t>
+    <t>dish</t>
   </si>
   <si>
     <t>wish</t>
@@ -241,43 +238,49 @@
     <t>works</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>long</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
@@ -286,19 +289,13 @@
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>made</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -659,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -799,7 +796,7 @@
         <v>88</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>0.946236559139785</v>
@@ -828,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2323232323232323</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,45 +843,69 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.890625</v>
+      </c>
+      <c r="L5">
+        <v>114</v>
+      </c>
+      <c r="M5">
+        <v>114</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>14</v>
       </c>
-      <c r="K5">
-        <v>0.8984375</v>
-      </c>
-      <c r="L5">
-        <v>115</v>
-      </c>
-      <c r="M5">
-        <v>115</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>161</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>551</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>551</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8405797101449275</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,12 +1021,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <v>0.7777777777777778</v>
@@ -1031,16 +1052,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7662337662337663</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1052,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.696969696969697</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L13">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1078,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6712328767123288</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1104,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6711864406779661</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="L15">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M15">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1130,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>810</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>810</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1156,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6492776886035313</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L17">
-        <v>809</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>809</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1182,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>437</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6342857142857142</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1208,15 +1229,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6338028169014085</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
         <v>45</v>
@@ -1234,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1260,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="L21">
         <v>30</v>
       </c>
-      <c r="K21">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L21">
-        <v>42</v>
-      </c>
       <c r="M21">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6142857142857143</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1312,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6140350877192983</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1338,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.6122448979591837</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1364,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6111111111111112</v>
+        <v>0.5688622754491018</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1416,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.546875</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1442,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5641025641025641</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1468,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5542168674698795</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1494,15 +1515,15 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.546875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L30">
         <v>35</v>
@@ -1520,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5294117647058824</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1546,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5096153846153846</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1572,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5089820359281437</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L33">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1598,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.5081967213114754</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1624,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.5076923076923077</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1650,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.49</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1676,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4736842105263158</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L37">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M37">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1702,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1728,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4354838709677419</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1754,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4342105263157895</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1780,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.427710843373494</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L41">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M41">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1806,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.3970588235294117</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L42">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1832,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>246</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3968253968253968</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1858,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3947368421052632</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1884,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.377431906614786</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L45">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M45">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1910,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3233082706766917</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1936,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>90</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3148148148148148</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1962,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3063063063063063</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L48">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1988,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.2976190476190476</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2014,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.297029702970297</v>
+        <v>0.3123287671232877</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2040,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>71</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2949640287769784</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2066,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2904109589041096</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L52">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2092,47 +2113,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>518</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53">
+        <v>0.2705882352941176</v>
+      </c>
+      <c r="L53">
+        <v>23</v>
+      </c>
+      <c r="M53">
+        <v>23</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>62</v>
-      </c>
-      <c r="K53">
-        <v>0.271523178807947</v>
-      </c>
-      <c r="L53">
-        <v>41</v>
-      </c>
-      <c r="M53">
-        <v>41</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>110</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2705882352941176</v>
+        <v>0.2604951560818084</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2144,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>62</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2679425837320574</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L55">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2170,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2588235294117647</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2196,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2497308934337998</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L57">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="M57">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2222,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>697</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2483221476510067</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L58">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2248,21 +2269,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>112</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2351097178683386</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L59">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M59">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2274,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>244</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.2295081967213115</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2300,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2285714285714286</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2326,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.2162162162162162</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2352,47 +2373,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.2053571428571428</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L63">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>89</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.1923076923076923</v>
+        <v>0.1854219948849105</v>
       </c>
       <c r="L64">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2404,125 +2425,125 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>105</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1920529801324503</v>
+        <v>0.1657608695652174</v>
       </c>
       <c r="L65">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="M65">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>610</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1837837837837838</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="L66">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M66">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>302</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.17797695262484</v>
+        <v>0.147766323024055</v>
       </c>
       <c r="L67">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="M67">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="N67">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>642</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1515151515151515</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1477832512315271</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2534,21 +2555,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.134020618556701</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="L70">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2560,21 +2581,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>252</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1338199513381995</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L71">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M71">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2586,21 +2607,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1299435028248588</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2612,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>154</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1227272727272727</v>
+        <v>0.116945107398568</v>
       </c>
       <c r="L73">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M73">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2638,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1222222222222222</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L74">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M74">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2664,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1218487394957983</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L75">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2690,21 +2711,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1140350877192982</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L76">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M76">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2716,73 +2737,73 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1033210332103321</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M77">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>243</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1026252983293556</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="L78">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="M78">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>376</v>
+        <v>994</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.08743169398907104</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L79">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2794,21 +2815,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K80">
-        <v>0.07614213197969544</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2820,47 +2841,47 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.07460545193687231</v>
+        <v>0.05569007263922518</v>
       </c>
       <c r="L81">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M81">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N81">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>645</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K82">
-        <v>0.06902985074626866</v>
+        <v>0.05350553505535055</v>
       </c>
       <c r="L82">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M82">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2872,85 +2893,33 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>998</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K83">
-        <v>0.04621072088724584</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="L83">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M83">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K84">
-        <v>0.04329004329004329</v>
-      </c>
-      <c r="L84">
-        <v>50</v>
-      </c>
-      <c r="M84">
-        <v>52</v>
-      </c>
-      <c r="N84">
-        <v>0.96</v>
-      </c>
-      <c r="O84">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K85">
-        <v>0.0421455938697318</v>
-      </c>
-      <c r="L85">
-        <v>22</v>
-      </c>
-      <c r="M85">
-        <v>22</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>500</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
